--- a/IDBR/excel/resuilt_new(AutoRecovered).xlsx
+++ b/IDBR/excel/resuilt_new(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IDBR\IRDBR\IDBR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF302C20-20C5-4B65-A079-3B6867411186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3A0F9-63FB-4177-8CA0-F32EE00B9315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A13DA03A-EA5C-411C-8535-D1B579D97496}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,11 +188,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -312,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51896C0A-7784-43F1-ABC7-B5DD42D8A460}">
-  <dimension ref="A1:AK109"/>
+  <dimension ref="A1:AK124"/>
   <sheetViews>
-    <sheetView topLeftCell="Q37" workbookViewId="0">
-      <selection activeCell="AB74" sqref="AB74:AK79"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +665,8 @@
     <col min="24" max="24" width="13.140625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -846,6 +856,25 @@
         <f t="shared" si="1"/>
         <v>28.752375000000001</v>
       </c>
+      <c r="AE5" s="6">
+        <v>3058110</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>3035280</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2788950</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2688630</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>2908340</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f>AVERAGE(AE5:AI5)</f>
+        <v>2895862</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -877,6 +906,21 @@
         <f t="shared" si="1"/>
         <v>43.001750000000001</v>
       </c>
+      <c r="AE6" s="6">
+        <v>3094660</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3168510</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2889800</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2807550</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>3174260</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -911,6 +955,21 @@
         <f t="shared" si="1"/>
         <v>75.073875000000001</v>
       </c>
+      <c r="AE7" s="6">
+        <v>3167850</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>3183650</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2903700</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2845990</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>3178390</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -945,6 +1004,21 @@
         <f t="shared" si="1"/>
         <v>79.966374999999999</v>
       </c>
+      <c r="AE8" s="6">
+        <v>3181500</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>3210370</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>2941510</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>2951320</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>3226270</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -979,6 +1053,25 @@
         <f t="shared" si="1"/>
         <v>81.482375000000005</v>
       </c>
+      <c r="AE9" s="6">
+        <v>3189780</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>3270880</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>2950370</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>2977320</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>3234280</v>
+      </c>
+      <c r="AJ9" s="6">
+        <f>AVERAGE(AE9:AI9)</f>
+        <v>3124526</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="S10" s="6">
@@ -1007,6 +1100,25 @@
         <f t="shared" si="1"/>
         <v>77.4255</v>
       </c>
+      <c r="AE10" s="11">
+        <v>0.983066</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0.98284800000000005</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0.98322500000000002</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>0.98219599999999996</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>0.97916899999999996</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f>AVERAGE(AE10:AI10)</f>
+        <v>0.98210080000000011</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -6301,7 +6413,7 @@
         <v>0.32619999999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>1</v>
       </c>
@@ -6366,7 +6478,7 @@
         <v>0.35533599999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>5</v>
       </c>
@@ -6431,7 +6543,7 @@
         <v>0.43376500000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
         <v>10</v>
       </c>
@@ -6496,7 +6608,7 @@
         <v>0.45367200000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.25">
       <c r="N86" s="2">
         <v>8.3663299999999999E-3</v>
       </c>
@@ -6510,7 +6622,7 @@
         <v>1.10064E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
       <c r="N87" s="2">
         <v>1.4303700000000001E-2</v>
       </c>
@@ -6524,7 +6636,7 @@
         <v>2.3755399999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>1713.4749999999999</v>
       </c>
@@ -6558,8 +6670,30 @@
       <c r="Q88" s="2">
         <v>6.9076399999999996E-2</v>
       </c>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U88" s="11">
+        <v>4.4084900000000002E-3</v>
+      </c>
+      <c r="V88" s="11">
+        <v>4.1247999999999996E-3</v>
+      </c>
+      <c r="W88" s="11">
+        <v>9.3831799999999996E-3</v>
+      </c>
+      <c r="X88" s="11">
+        <v>7.8720999999999999E-3</v>
+      </c>
+      <c r="Y88" s="11">
+        <v>9.6948300000000004E-4</v>
+      </c>
+      <c r="Z88" s="11">
+        <f>AVERAGE(U88:Y88)</f>
+        <v>5.351610599999999E-3</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>8.7831200000000002E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>C88/1024</f>
         <v>1.6733154296874999</v>
@@ -6584,8 +6718,30 @@
       <c r="Q89" s="2">
         <v>7.8974799999999998E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U89" s="11">
+        <v>0.65667399999999998</v>
+      </c>
+      <c r="V89" s="11">
+        <v>0.65398699999999999</v>
+      </c>
+      <c r="W89" s="11">
+        <v>0.64985099999999996</v>
+      </c>
+      <c r="X89" s="11">
+        <v>0.64627199999999996</v>
+      </c>
+      <c r="Y89" s="11">
+        <v>0.63395599999999996</v>
+      </c>
+      <c r="Z89" s="11">
+        <f t="shared" ref="Z89:Z92" si="2">AVERAGE(U89:Y89)</f>
+        <v>0.64814800000000006</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>0.59591499999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
       <c r="N90" s="2">
         <v>2.4594000000000001E-2</v>
       </c>
@@ -6598,8 +6754,30 @@
       <c r="Q90" s="2">
         <v>0.108529</v>
       </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U90" s="11">
+        <v>0.83033400000000002</v>
+      </c>
+      <c r="V90" s="11">
+        <v>0.82907699999999995</v>
+      </c>
+      <c r="W90" s="11">
+        <v>0.82550900000000005</v>
+      </c>
+      <c r="X90" s="11">
+        <v>0.83218899999999996</v>
+      </c>
+      <c r="Y90" s="11">
+        <v>0.79495499999999997</v>
+      </c>
+      <c r="Z90" s="11">
+        <f t="shared" si="2"/>
+        <v>0.82241280000000005</v>
+      </c>
+      <c r="AB90" s="11">
+        <v>0.79871300000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F91" s="2">
         <v>2.5947899999999999E-2</v>
       </c>
@@ -6621,8 +6799,30 @@
       <c r="Q91" s="2">
         <v>0.114844</v>
       </c>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U91" s="11">
+        <v>0.96500600000000003</v>
+      </c>
+      <c r="V91" s="11">
+        <v>0.96719500000000003</v>
+      </c>
+      <c r="W91" s="11">
+        <v>0.96447499999999997</v>
+      </c>
+      <c r="X91" s="11">
+        <v>0.96763299999999997</v>
+      </c>
+      <c r="Y91" s="11">
+        <v>0.95918300000000001</v>
+      </c>
+      <c r="Z91" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96469840000000018</v>
+      </c>
+      <c r="AB91" s="11">
+        <v>0.93304299999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>3022.4749999999999</v>
       </c>
@@ -6638,8 +6838,30 @@
       <c r="H92">
         <v>0.939052</v>
       </c>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U92" s="11">
+        <v>0.983066</v>
+      </c>
+      <c r="V92" s="11">
+        <v>0.98284800000000005</v>
+      </c>
+      <c r="W92" s="11">
+        <v>0.98322500000000002</v>
+      </c>
+      <c r="X92" s="11">
+        <v>0.98219599999999996</v>
+      </c>
+      <c r="Y92" s="11">
+        <v>0.97916899999999996</v>
+      </c>
+      <c r="Z92" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98210080000000011</v>
+      </c>
+      <c r="AB92" s="11">
+        <v>0.94488000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>C92/1024</f>
         <v>2.9516357421874999</v>
@@ -6648,8 +6870,43 @@
         <f>D92/1024</f>
         <v>2.9313110351562499</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="Z93" s="11">
+        <f>AVERAGE(Z88:Z92)</f>
+        <v>0.6845423221200001</v>
+      </c>
+      <c r="AB93" s="11">
+        <f>AVERAGE(AB88:AB92)</f>
+        <v>0.65468586239999993</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB94" s="21">
+        <f>(AB93-Z93)/Z93</f>
+        <v>-4.3615213778946373E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="U96" s="6">
+        <v>2908340</v>
+      </c>
+      <c r="V96" s="6">
+        <v>3174260</v>
+      </c>
+      <c r="W96" s="6">
+        <v>3178390</v>
+      </c>
+      <c r="X96" s="6">
+        <v>3226270</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>3234280</v>
+      </c>
+      <c r="Z96" s="6">
+        <f>AVERAGE(U96:Y96)</f>
+        <v>3144308</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>0.10704</v>
       </c>
@@ -6680,8 +6937,27 @@
       <c r="L97">
         <v>0.231075</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="U97" s="6">
+        <v>3075390</v>
+      </c>
+      <c r="V97" s="6">
+        <v>3525900</v>
+      </c>
+      <c r="W97" s="6">
+        <v>3687340</v>
+      </c>
+      <c r="X97" s="6">
+        <v>5160470</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>8255260</v>
+      </c>
+      <c r="Z97" s="6">
+        <f>AVERAGE(U97:Y97)</f>
+        <v>4740872</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>9.7291600000000006E-2</v>
       </c>
@@ -6712,8 +6988,12 @@
       <c r="L98">
         <v>0.20879500000000001</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="Z98">
+        <f>(Z97-Z96)/Z96</f>
+        <v>0.50776323439052407</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>6.4011399999999996E-2</v>
       </c>
@@ -6745,7 +7025,7 @@
         <v>0.191582</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>6.51616E-2</v>
       </c>
@@ -6777,7 +7057,7 @@
         <v>0.194804</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>9.3909599999999996E-2</v>
       </c>
@@ -6809,7 +7089,7 @@
         <v>0.30148000000000003</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>9.7071299999999999E-2</v>
       </c>
@@ -6841,7 +7121,7 @@
         <v>0.33822600000000003</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>0.90679565429687503</v>
       </c>
@@ -6873,7 +7153,7 @@
         <v>1.4534912109375</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>0.90456542968749998</v>
       </c>
@@ -6905,7 +7185,7 @@
         <v>1.5114990234375001</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>0.90058227539062496</v>
       </c>
@@ -6937,7 +7217,7 @@
         <v>1.48280029296875</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>0.88899536132812496</v>
       </c>
@@ -6969,7 +7249,7 @@
         <v>1.4773681640625</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>0.87279052734374996</v>
       </c>
@@ -7001,7 +7281,7 @@
         <v>1.8951049804687501</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>0.88368652343749998</v>
       </c>
@@ -7031,6 +7311,162 @@
       </c>
       <c r="L109">
         <v>2.5358398437499998</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="6">
+        <v>7702850</v>
+      </c>
+      <c r="D113" s="6">
+        <v>7738380</v>
+      </c>
+      <c r="E113" s="6">
+        <v>7327030</v>
+      </c>
+      <c r="F113" s="6">
+        <v>7386260</v>
+      </c>
+      <c r="G113" s="6">
+        <f>AVERAGE(C113:F113)</f>
+        <v>7538630</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" s="6">
+        <v>8511400</v>
+      </c>
+      <c r="D114" s="6">
+        <v>8668080</v>
+      </c>
+      <c r="E114" s="6">
+        <v>7922700</v>
+      </c>
+      <c r="F114" s="6">
+        <v>7943390</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" s="6">
+        <v>8514410</v>
+      </c>
+      <c r="D115" s="6">
+        <v>8717810</v>
+      </c>
+      <c r="E115" s="6">
+        <v>7852780</v>
+      </c>
+      <c r="F115" s="6">
+        <v>7887570</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" s="6">
+        <v>8790340</v>
+      </c>
+      <c r="D116" s="6">
+        <v>8613570</v>
+      </c>
+      <c r="E116" s="6">
+        <v>7941450</v>
+      </c>
+      <c r="F116" s="6">
+        <v>7966970</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" s="6">
+        <v>8634570</v>
+      </c>
+      <c r="D117" s="6">
+        <v>8832720</v>
+      </c>
+      <c r="E117" s="6">
+        <v>7971960</v>
+      </c>
+      <c r="F117" s="6">
+        <v>8084180</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" s="6">
+        <v>8754730</v>
+      </c>
+      <c r="D118" s="6">
+        <v>8940790</v>
+      </c>
+      <c r="E118" s="6">
+        <v>7923200</v>
+      </c>
+      <c r="F118" s="6">
+        <v>8065210</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" s="6">
+        <v>8776670</v>
+      </c>
+      <c r="D119" s="6">
+        <v>8900440</v>
+      </c>
+      <c r="E119" s="6">
+        <v>8022170</v>
+      </c>
+      <c r="F119" s="6">
+        <v>7960790</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" s="6">
+        <v>8656050</v>
+      </c>
+      <c r="D120" s="6">
+        <v>8803970</v>
+      </c>
+      <c r="E120" s="6">
+        <v>8089870</v>
+      </c>
+      <c r="F120" s="6">
+        <v>8044270</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" s="6">
+        <v>8540740</v>
+      </c>
+      <c r="D121" s="6">
+        <v>8963080</v>
+      </c>
+      <c r="E121" s="6">
+        <v>8105170</v>
+      </c>
+      <c r="F121" s="6">
+        <v>8036360</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" s="6">
+        <v>8893520</v>
+      </c>
+      <c r="D122" s="6">
+        <v>8589160</v>
+      </c>
+      <c r="E122" s="6">
+        <v>8045740</v>
+      </c>
+      <c r="F122" s="6">
+        <v>8075310</v>
+      </c>
+      <c r="G122" s="6">
+        <f>AVERAGE(C122:F122)</f>
+        <v>8400932.5</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J124" s="6">
+        <v>10483200</v>
+      </c>
+      <c r="K124" s="6">
+        <v>29912700</v>
       </c>
     </row>
   </sheetData>
@@ -7524,10 +7960,10 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="24"/>
       <c r="L11" t="s">
         <v>12</v>
       </c>
@@ -7540,10 +7976,10 @@
       <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="T11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="23"/>
+      <c r="U11" s="24"/>
       <c r="V11" t="s">
         <v>12</v>
       </c>
@@ -7582,10 +8018,10 @@
       <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="9" t="s">
         <v>4</v>
       </c>
@@ -7608,10 +8044,10 @@
         <v>21</v>
       </c>
       <c r="S12" s="10"/>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U12" s="21"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="9" t="s">
         <v>4</v>
       </c>
@@ -8455,10 +8891,10 @@
       <c r="H23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="9" t="s">
         <v>4</v>
       </c>
@@ -8481,10 +8917,10 @@
         <v>21</v>
       </c>
       <c r="S23" s="10"/>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="21"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="9" t="s">
         <v>4</v>
       </c>
@@ -9355,10 +9791,10 @@
       <c r="H34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="9" t="s">
         <v>4</v>
       </c>
@@ -9381,10 +9817,10 @@
         <v>21</v>
       </c>
       <c r="S34" s="10"/>
-      <c r="T34" s="21" t="s">
+      <c r="T34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="U34" s="21"/>
+      <c r="U34" s="22"/>
       <c r="V34" s="9" t="s">
         <v>4</v>
       </c>
@@ -10250,10 +10686,10 @@
       <c r="H45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="21"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="9" t="s">
         <v>4</v>
       </c>
@@ -10276,10 +10712,10 @@
         <v>21</v>
       </c>
       <c r="S45" s="10"/>
-      <c r="T45" s="21" t="s">
+      <c r="T45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="21"/>
+      <c r="U45" s="22"/>
       <c r="V45" s="9" t="s">
         <v>4</v>
       </c>
@@ -11184,10 +11620,10 @@
       <c r="H56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="9" t="s">
         <v>4</v>
       </c>
@@ -11210,10 +11646,10 @@
         <v>21</v>
       </c>
       <c r="S56" s="10"/>
-      <c r="T56" s="21" t="s">
+      <c r="T56" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U56" s="21"/>
+      <c r="U56" s="22"/>
       <c r="V56" s="9" t="s">
         <v>4</v>
       </c>
@@ -12008,10 +12444,10 @@
       <c r="H67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J67" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="21"/>
+      <c r="K67" s="22"/>
       <c r="L67" s="9" t="s">
         <v>4</v>
       </c>
@@ -12034,10 +12470,10 @@
         <v>21</v>
       </c>
       <c r="S67" s="10"/>
-      <c r="T67" s="21" t="s">
+      <c r="T67" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="U67" s="21"/>
+      <c r="U67" s="22"/>
       <c r="V67" s="9" t="s">
         <v>4</v>
       </c>
@@ -12890,8 +13326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E643D7BC-AB9C-4C7D-A150-6AD866B71A01}">
   <dimension ref="A1:AH90"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH68" sqref="AB14:AH68"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12920,6 +13356,8 @@
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -13083,6 +13521,16 @@
         <f t="shared" si="1"/>
         <v>23.74175</v>
       </c>
+      <c r="AF3" s="6">
+        <v>3178040</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>3208130</v>
+      </c>
+      <c r="AH3" s="2">
+        <f>(AG3-AF3)/AF3</f>
+        <v>9.468099835118501E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13138,6 +13586,16 @@
         <f t="shared" si="1"/>
         <v>33.419125000000001</v>
       </c>
+      <c r="AF4" s="6">
+        <v>2838740</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>3124660</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" ref="AH4:AH9" si="2">(AG4-AF4)/AF4</f>
+        <v>0.10072074230116178</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -13194,6 +13652,16 @@
         <f t="shared" si="1"/>
         <v>21.19125</v>
       </c>
+      <c r="AF5" s="6">
+        <v>2838520</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>3055190</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6332032185786963E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -13246,6 +13714,16 @@
         <f t="shared" si="1"/>
         <v>11.1350125</v>
       </c>
+      <c r="AF6" s="6">
+        <v>2569410</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2930420</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1405030726898393</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -13301,6 +13779,16 @@
         <f t="shared" si="1"/>
         <v>10.920412499999999</v>
       </c>
+      <c r="AF7" s="6">
+        <v>2540800</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2668130</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0114137279596981E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -13312,6 +13800,16 @@
       <c r="S8" s="13"/>
       <c r="T8" s="6"/>
       <c r="U8" s="11"/>
+      <c r="AF8" s="6">
+        <v>2377040</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>2598970</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3364015750681525E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -13327,6 +13825,16 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
+      <c r="AF9" s="6">
+        <v>2159420</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>2416080</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11885598910818646</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="S10" s="13"/>
@@ -13336,6 +13844,18 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
+      <c r="AF10" s="25">
+        <f>AVERAGE(AF3:AF9)</f>
+        <v>2643138.5714285714</v>
+      </c>
+      <c r="AG10" s="25">
+        <f>AVERAGE(AG3:AG9)</f>
+        <v>2857368.5714285714</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>AVERAGE(AH3:AH9)</f>
+        <v>8.4194012735767348E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H11" s="17"/>
@@ -13347,6 +13867,10 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
+      <c r="AG11" s="2">
+        <f>(AG10-AF10)/AF10</f>
+        <v>8.1051369124477024E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -17336,6 +17860,50 @@
         <v>0.37725830078125</v>
       </c>
       <c r="K73" s="2"/>
+      <c r="L73" s="13">
+        <v>8746550</v>
+      </c>
+      <c r="M73" s="13">
+        <v>8996300</v>
+      </c>
+      <c r="N73" s="13">
+        <v>8326530</v>
+      </c>
+      <c r="O73" s="13">
+        <v>8036050</v>
+      </c>
+      <c r="P73" s="13">
+        <v>9866940</v>
+      </c>
+      <c r="Q73" s="13">
+        <f>AVERAGE(L73:P73)</f>
+        <v>8794474</v>
+      </c>
+      <c r="R73" s="13">
+        <v>13894200</v>
+      </c>
+      <c r="S73" s="2">
+        <f>(R73-Q73)/Q73</f>
+        <v>0.57987845549375661</v>
+      </c>
+      <c r="U73" s="11">
+        <v>3.3892100000000001E-3</v>
+      </c>
+      <c r="V73" s="11">
+        <v>2.1495799999999999E-3</v>
+      </c>
+      <c r="W73" s="11">
+        <v>2.81416E-3</v>
+      </c>
+      <c r="X73" s="11">
+        <v>7.7555300000000001E-3</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>4.53172E-4</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>7.5333799999999999E-4</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
@@ -17362,6 +17930,50 @@
         <v>0.35993041992187502</v>
       </c>
       <c r="K74" s="2"/>
+      <c r="L74" s="13">
+        <v>6722150</v>
+      </c>
+      <c r="M74" s="6">
+        <v>6451450</v>
+      </c>
+      <c r="N74" s="13">
+        <v>5893110</v>
+      </c>
+      <c r="O74" s="13">
+        <v>5918330</v>
+      </c>
+      <c r="P74" s="13">
+        <v>7011660</v>
+      </c>
+      <c r="Q74" s="13">
+        <f t="shared" ref="Q74:Q79" si="3">AVERAGE(L74:P74)</f>
+        <v>6399340</v>
+      </c>
+      <c r="R74" s="13">
+        <v>10822600</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" ref="S74:S79" si="4">(R74-Q74)/Q74</f>
+        <v>0.69120565558323199</v>
+      </c>
+      <c r="U74" s="11">
+        <v>8.6656000000000007E-3</v>
+      </c>
+      <c r="V74" s="11">
+        <v>9.6027600000000001E-3</v>
+      </c>
+      <c r="W74" s="11">
+        <v>6.8494999999999997E-3</v>
+      </c>
+      <c r="X74" s="11">
+        <v>8.2037199999999994E-3</v>
+      </c>
+      <c r="Y74" s="11">
+        <v>3.5232699999999998E-3</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>1.05069E-3</v>
+      </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
@@ -17387,6 +17999,50 @@
       <c r="I75">
         <v>0.36687744140625</v>
       </c>
+      <c r="L75" s="13">
+        <v>5129840</v>
+      </c>
+      <c r="M75" s="13">
+        <v>5241690</v>
+      </c>
+      <c r="N75" s="13">
+        <v>4691890</v>
+      </c>
+      <c r="O75" s="13">
+        <v>4713130</v>
+      </c>
+      <c r="P75" s="13">
+        <v>5302410</v>
+      </c>
+      <c r="Q75" s="13">
+        <f t="shared" si="3"/>
+        <v>5015792</v>
+      </c>
+      <c r="R75" s="13">
+        <v>8858280</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="4"/>
+        <v>0.76607801918420859</v>
+      </c>
+      <c r="U75" s="11">
+        <v>9.4892399999999995E-3</v>
+      </c>
+      <c r="V75" s="11">
+        <v>1.00722E-2</v>
+      </c>
+      <c r="W75" s="11">
+        <v>7.9545199999999996E-3</v>
+      </c>
+      <c r="X75" s="11">
+        <v>1.06914E-2</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>5.4122099999999998E-3</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>1.79368E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
@@ -17413,6 +18069,50 @@
         <v>0.58754638671875004</v>
       </c>
       <c r="J76" s="2"/>
+      <c r="L76" s="13">
+        <v>4389980</v>
+      </c>
+      <c r="M76" s="13">
+        <v>4255000</v>
+      </c>
+      <c r="N76" s="13">
+        <v>3677240</v>
+      </c>
+      <c r="O76" s="13">
+        <v>3816430</v>
+      </c>
+      <c r="P76" s="13">
+        <v>4324120</v>
+      </c>
+      <c r="Q76" s="13">
+        <f t="shared" si="3"/>
+        <v>4092554</v>
+      </c>
+      <c r="R76" s="13">
+        <v>7220670</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7643432438521276</v>
+      </c>
+      <c r="U76" s="11">
+        <v>1.3424500000000001E-2</v>
+      </c>
+      <c r="V76" s="11">
+        <v>2.09634E-2</v>
+      </c>
+      <c r="W76" s="11">
+        <v>1.54311E-2</v>
+      </c>
+      <c r="X76" s="11">
+        <v>1.6064999999999999E-2</v>
+      </c>
+      <c r="Y76" s="11">
+        <v>9.5627400000000001E-3</v>
+      </c>
+      <c r="Z76" s="11">
+        <v>5.4822300000000003E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
@@ -17437,6 +18137,50 @@
       </c>
       <c r="I77">
         <v>0.96669799804687495</v>
+      </c>
+      <c r="L77" s="13">
+        <v>2499070</v>
+      </c>
+      <c r="M77" s="13">
+        <v>2532180</v>
+      </c>
+      <c r="N77" s="13">
+        <v>2108790</v>
+      </c>
+      <c r="O77" s="13">
+        <v>2208540</v>
+      </c>
+      <c r="P77" s="13">
+        <v>2345670</v>
+      </c>
+      <c r="Q77" s="13">
+        <f t="shared" si="3"/>
+        <v>2338850</v>
+      </c>
+      <c r="R77" s="13">
+        <v>4963810</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1223293498941789</v>
+      </c>
+      <c r="U77" s="11">
+        <v>2.4336799999999999E-2</v>
+      </c>
+      <c r="V77" s="11">
+        <v>3.1558099999999999E-2</v>
+      </c>
+      <c r="W77" s="11">
+        <v>1.9866000000000002E-2</v>
+      </c>
+      <c r="X77" s="11">
+        <v>2.5343500000000001E-2</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>1.2043399999999999E-2</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>5.7996799999999998E-3</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
@@ -17446,6 +18190,50 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
+      <c r="L78" s="13">
+        <v>1418760</v>
+      </c>
+      <c r="M78" s="13">
+        <v>1417600</v>
+      </c>
+      <c r="N78" s="13">
+        <v>1206170</v>
+      </c>
+      <c r="O78" s="13">
+        <v>1171960</v>
+      </c>
+      <c r="P78" s="13">
+        <v>1252930</v>
+      </c>
+      <c r="Q78" s="13">
+        <f t="shared" si="3"/>
+        <v>1293484</v>
+      </c>
+      <c r="R78" s="13">
+        <v>3067640</v>
+      </c>
+      <c r="S78" s="2">
+        <f t="shared" si="4"/>
+        <v>1.371610317560944</v>
+      </c>
+      <c r="U78" s="11">
+        <v>2.88851E-2</v>
+      </c>
+      <c r="V78" s="11">
+        <v>4.4203600000000003E-2</v>
+      </c>
+      <c r="W78" s="11">
+        <v>2.9623699999999999E-2</v>
+      </c>
+      <c r="X78" s="11">
+        <v>3.0358900000000001E-2</v>
+      </c>
+      <c r="Y78" s="11">
+        <v>1.9000599999999999E-2</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>1.1266200000000001E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C79">
@@ -17469,6 +18257,50 @@
       <c r="I79">
         <v>0.69400899999999999</v>
       </c>
+      <c r="L79" s="13">
+        <v>1199880</v>
+      </c>
+      <c r="M79" s="13">
+        <v>1161990</v>
+      </c>
+      <c r="N79" s="13">
+        <v>985872</v>
+      </c>
+      <c r="O79" s="13">
+        <v>970936</v>
+      </c>
+      <c r="P79" s="13">
+        <v>968145</v>
+      </c>
+      <c r="Q79" s="13">
+        <f t="shared" si="3"/>
+        <v>1057364.6000000001</v>
+      </c>
+      <c r="R79" s="13">
+        <v>2717060</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5696528898357291</v>
+      </c>
+      <c r="U79" s="11">
+        <v>5.0938600000000001E-2</v>
+      </c>
+      <c r="V79" s="11">
+        <v>5.8920800000000002E-2</v>
+      </c>
+      <c r="W79" s="11">
+        <v>5.5151499999999999E-2</v>
+      </c>
+      <c r="X79" s="11">
+        <v>3.9752000000000003E-2</v>
+      </c>
+      <c r="Y79" s="11">
+        <v>3.5985299999999998E-2</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>1.8088199999999999E-2</v>
+      </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C80">
@@ -17492,8 +18324,44 @@
       <c r="I80">
         <v>0.664134</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q80" s="13">
+        <f>AVERAGE(Q73:Q79)</f>
+        <v>4141694.0857142857</v>
+      </c>
+      <c r="R80" s="13">
+        <f>AVERAGE(R73:R79)</f>
+        <v>7363465.7142857146</v>
+      </c>
+      <c r="S80" s="2">
+        <f>AVERAGE(S73:S79)</f>
+        <v>0.98072827591488243</v>
+      </c>
+      <c r="U80" s="11">
+        <f>AVERAGE(U73:U79)</f>
+        <v>1.9875578571428573E-2</v>
+      </c>
+      <c r="V80" s="11">
+        <f t="shared" ref="V80:Z80" si="5">AVERAGE(V73:V79)</f>
+        <v>2.5352920000000001E-2</v>
+      </c>
+      <c r="W80" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9670068571428573E-2</v>
+      </c>
+      <c r="X80" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9738578571428574E-2</v>
+      </c>
+      <c r="Y80" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2282955999999999E-2</v>
+      </c>
+      <c r="Z80" s="11">
+        <f t="shared" si="5"/>
+        <v>6.3191454285714283E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>0.18733</v>
       </c>
@@ -17517,7 +18385,7 @@
       </c>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>0.18936600000000001</v>
       </c>
@@ -17539,8 +18407,18 @@
       <c r="I82">
         <v>0.66783099999999995</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q82" s="13">
+        <v>3812998.8571428573</v>
+      </c>
+      <c r="R82" s="13">
+        <v>3994871.4285714286</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" ref="S82" si="6">(R82-Q82)/Q82</f>
+        <v>4.7698039848050586E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>0.28237000000000001</v>
       </c>
@@ -17563,8 +18441,23 @@
         <v>0.82174100000000005</v>
       </c>
       <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <v>1.9875578571428573E-2</v>
+      </c>
+      <c r="V83">
+        <v>2.5352920000000001E-2</v>
+      </c>
+      <c r="W83">
+        <v>1.9670068571428573E-2</v>
+      </c>
+      <c r="X83">
+        <v>1.9738578571428574E-2</v>
+      </c>
+      <c r="AB83">
+        <v>1.9875578571428573E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>0.25930199999999998</v>
       </c>
@@ -17586,12 +18479,45 @@
       <c r="I84">
         <v>0.68141799999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB84">
+        <v>2.5352920000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB85">
+        <v>1.9670068571428573E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AB86">
+        <v>1.9738578571428574E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB87">
+        <f>AVERAGE(AB83:AB86)</f>
+        <v>2.1159286428571431E-2</v>
+      </c>
+      <c r="AC87">
+        <v>1.2282955999999999E-2</v>
+      </c>
+      <c r="AD87">
+        <v>6.3191454285714283E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB88">
+        <f>(AD87-AB87)/AB87</f>
+        <v>-0.70135356643980806</v>
+      </c>
+      <c r="AC88">
+        <f>(AD87-AC87)/AC87</f>
+        <v>-0.48553545021479938</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -17607,10 +18533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034FCBC7-265C-4067-BDA4-1FCFDBA853AC}">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113:J113"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17627,6 +18553,7 @@
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" customWidth="1"/>
   </cols>
@@ -18014,10 +18941,10 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="24"/>
       <c r="L11" t="s">
         <v>12</v>
       </c>
@@ -18030,8 +18957,8 @@
       <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -18058,10 +18985,10 @@
       <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="9" t="s">
         <v>44</v>
       </c>
@@ -18084,8 +19011,8 @@
         <v>21</v>
       </c>
       <c r="S12" s="10"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="9"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -18660,10 +19587,10 @@
       <c r="H23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="9" t="s">
         <v>44</v>
       </c>
@@ -18686,8 +19613,8 @@
         <v>21</v>
       </c>
       <c r="S23" s="10"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="9"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
@@ -19217,10 +20144,10 @@
       <c r="H34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="9" t="s">
         <v>44</v>
       </c>
@@ -19243,8 +20170,8 @@
         <v>21</v>
       </c>
       <c r="S34" s="10"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
       <c r="V34" s="9"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
@@ -19813,10 +20740,10 @@
       <c r="H45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="21"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="9" t="s">
         <v>44</v>
       </c>
@@ -19839,8 +20766,8 @@
         <v>21</v>
       </c>
       <c r="S45" s="10"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
       <c r="V45" s="9"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
@@ -20370,10 +21297,10 @@
       <c r="H56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="9" t="s">
         <v>44</v>
       </c>
@@ -20396,8 +21323,8 @@
         <v>21</v>
       </c>
       <c r="S56" s="10"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
       <c r="V56" s="9"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
@@ -20783,10 +21710,10 @@
       <c r="H67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="J67" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="21"/>
+      <c r="K67" s="22"/>
       <c r="L67" s="9" t="s">
         <v>44</v>
       </c>
@@ -20809,8 +21736,8 @@
         <v>21</v>
       </c>
       <c r="S67" s="10"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
       <c r="V67" s="9"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
@@ -21418,8 +22345,26 @@
       <c r="J80" s="6">
         <v>12390300</v>
       </c>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M80" s="11">
+        <v>2.69088E-2</v>
+      </c>
+      <c r="N80" s="11">
+        <v>1.2499400000000001E-2</v>
+      </c>
+      <c r="O80" s="11">
+        <v>7.9209799999999993E-3</v>
+      </c>
+      <c r="P80" s="11">
+        <v>1.2864499999999999E-2</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>3.4378500000000001E-3</v>
+      </c>
+      <c r="R80" s="11">
+        <v>2.4354099999999998E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C81" s="6">
         <v>110016</v>
       </c>
@@ -21444,8 +22389,26 @@
       <c r="J81" s="6">
         <v>13753000</v>
       </c>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M81" s="11">
+        <v>7.0905200000000003E-3</v>
+      </c>
+      <c r="N81" s="11">
+        <v>8.08124E-3</v>
+      </c>
+      <c r="O81" s="11">
+        <v>7.8701799999999992E-3</v>
+      </c>
+      <c r="P81" s="11">
+        <v>1.00027E-2</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>1.6454200000000001E-3</v>
+      </c>
+      <c r="R81" s="11">
+        <v>1.7740799999999999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C82" s="6">
         <v>158738</v>
       </c>
@@ -21470,8 +22433,46 @@
       <c r="J82" s="6">
         <v>19579900</v>
       </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M82" s="11">
+        <v>7.0209000000000001E-3</v>
+      </c>
+      <c r="N82" s="11">
+        <v>5.9569899999999997E-3</v>
+      </c>
+      <c r="O82" s="11">
+        <v>7.79409E-3</v>
+      </c>
+      <c r="P82" s="11">
+        <v>9.61417E-3</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>1.1450500000000001E-3</v>
+      </c>
+      <c r="R82" s="11">
+        <v>1.65548E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M83" s="11">
+        <v>6.51893E-3</v>
+      </c>
+      <c r="N83" s="11">
+        <v>4.8124300000000004E-3</v>
+      </c>
+      <c r="O83" s="11">
+        <v>6.8662200000000001E-3</v>
+      </c>
+      <c r="P83" s="11">
+        <v>9.4661299999999997E-3</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>1.03656E-3</v>
+      </c>
+      <c r="R83" s="11">
+        <v>9.5517400000000004E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>2.7809900000000001</v>
       </c>
@@ -21496,8 +22497,29 @@
       <c r="J84">
         <v>268.56700000000001</v>
       </c>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M84" s="11">
+        <v>6.3884199999999997E-3</v>
+      </c>
+      <c r="N84" s="11">
+        <v>2.9867000000000001E-3</v>
+      </c>
+      <c r="O84" s="11">
+        <v>6.7678699999999996E-3</v>
+      </c>
+      <c r="P84" s="11">
+        <v>6.56144E-3</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>6.4712000000000005E-4</v>
+      </c>
+      <c r="R84" s="11">
+        <v>7.0795999999999999E-4</v>
+      </c>
+      <c r="U84">
+        <v>8.4507174999999997E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>2.5685600000000002</v>
       </c>
@@ -21522,8 +22544,29 @@
       <c r="J85">
         <v>265.245</v>
       </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M85" s="11">
+        <v>5.74078E-3</v>
+      </c>
+      <c r="N85" s="11">
+        <v>2.7667500000000001E-3</v>
+      </c>
+      <c r="O85" s="11">
+        <v>4.1751899999999996E-3</v>
+      </c>
+      <c r="P85" s="11">
+        <v>6.2461799999999996E-3</v>
+      </c>
+      <c r="Q85" s="11">
+        <v>6.2041600000000004E-4</v>
+      </c>
+      <c r="R85" s="11">
+        <v>5.93806E-4</v>
+      </c>
+      <c r="U85">
+        <v>5.211205E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>2.6423999999999999</v>
       </c>
@@ -21548,8 +22591,29 @@
       <c r="J86">
         <v>248.96299999999999</v>
       </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M86" s="11">
+        <v>4.59853E-3</v>
+      </c>
+      <c r="N86" s="11">
+        <v>2.7397400000000001E-3</v>
+      </c>
+      <c r="O86" s="11">
+        <v>3.9111700000000003E-3</v>
+      </c>
+      <c r="P86" s="11">
+        <v>5.8813099999999998E-3</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>5.5956400000000002E-4</v>
+      </c>
+      <c r="R86" s="11">
+        <v>4.3401300000000002E-4</v>
+      </c>
+      <c r="U86">
+        <v>5.9957937499999997E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>2.5905399999999998</v>
       </c>
@@ -21574,8 +22638,29 @@
       <c r="J87">
         <v>248.17400000000001</v>
       </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M87" s="11">
+        <v>3.3388599999999999E-3</v>
+      </c>
+      <c r="N87" s="11">
+        <v>1.8463900000000001E-3</v>
+      </c>
+      <c r="O87" s="11">
+        <v>2.6606500000000001E-3</v>
+      </c>
+      <c r="P87" s="11">
+        <v>5.2588299999999999E-3</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>3.1905200000000001E-4</v>
+      </c>
+      <c r="R87" s="11">
+        <v>2.2710499999999999E-4</v>
+      </c>
+      <c r="U87">
+        <v>8.2369074999999996E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>2.4779</v>
       </c>
@@ -21600,8 +22685,40 @@
       <c r="J88">
         <v>217.19900000000001</v>
       </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M88" s="11">
+        <f>AVERAGE(M80:M87)</f>
+        <v>8.4507174999999997E-3</v>
+      </c>
+      <c r="N88" s="11">
+        <f>AVERAGE(N80:N87)</f>
+        <v>5.211205E-3</v>
+      </c>
+      <c r="O88" s="11">
+        <f>AVERAGE(O80:O87)</f>
+        <v>5.9957937499999997E-3</v>
+      </c>
+      <c r="P88" s="11">
+        <f>AVERAGE(P80:P87)</f>
+        <v>8.2369074999999996E-3</v>
+      </c>
+      <c r="Q88" s="11">
+        <f>AVERAGE(Q80:Q87)</f>
+        <v>1.176379E-3</v>
+      </c>
+      <c r="R88" s="11">
+        <f>AVERAGE(R80:R87)</f>
+        <v>1.0978785E-3</v>
+      </c>
+      <c r="S88" s="11">
+        <f>AVERAGE(Q88:R88)</f>
+        <v>1.1371287499999999E-3</v>
+      </c>
+      <c r="U88">
+        <f>AVERAGE(U84:U87)</f>
+        <v>6.9736559375E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>2.35412</v>
       </c>
@@ -21626,8 +22743,27 @@
       <c r="J89">
         <v>218.49199999999999</v>
       </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>8.4507174999999997E-3</v>
+      </c>
+      <c r="N90">
+        <v>5.211205E-3</v>
+      </c>
+      <c r="O90">
+        <v>5.9957937499999997E-3</v>
+      </c>
+      <c r="P90">
+        <v>8.2369074999999996E-3</v>
+      </c>
+      <c r="T90">
+        <f>(S88-U88)/U88</f>
+        <v>-0.83693936721408546</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C91" s="11">
         <v>0.88078100000000004</v>
       </c>
@@ -21653,7 +22789,7 @@
         <v>0.83519900000000002</v>
       </c>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C92" s="11">
         <v>0.87857399999999997</v>
       </c>
@@ -21679,7 +22815,7 @@
         <v>0.83460900000000005</v>
       </c>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C93" s="11">
         <v>0.88282899999999997</v>
       </c>
@@ -21705,7 +22841,7 @@
         <v>0.83111800000000002</v>
       </c>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C94" s="11">
         <v>0.88088599999999995</v>
       </c>
@@ -21731,7 +22867,7 @@
         <v>0.83393099999999998</v>
       </c>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C95" s="11">
         <v>0.85181300000000004</v>
       </c>
@@ -21757,7 +22893,7 @@
         <v>0.78869500000000003</v>
       </c>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C96" s="11">
         <v>0.77513600000000005</v>
       </c>
@@ -22119,6 +23255,108 @@
       </c>
       <c r="J113">
         <v>1800</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D116" s="6">
+        <v>110016</v>
+      </c>
+      <c r="E116" s="6">
+        <v>158738</v>
+      </c>
+      <c r="F116" s="2">
+        <f>(E116-D116)/D116</f>
+        <v>0.44286285631180922</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D117" s="6">
+        <v>802776</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1185380</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" ref="F117:F123" si="1">(E117-D117)/D117</f>
+        <v>0.47660119385731514</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D118" s="6">
+        <v>2991970</v>
+      </c>
+      <c r="E118" s="6">
+        <v>4458130</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49003165138687887</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D119" s="6">
+        <v>8256920</v>
+      </c>
+      <c r="E119" s="6">
+        <v>11827700</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43245907675016837</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D120" s="6">
+        <v>10567700</v>
+      </c>
+      <c r="E120" s="6">
+        <v>14783500</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39893259649687257</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D121" s="6">
+        <v>12175600</v>
+      </c>
+      <c r="E121" s="6">
+        <v>16681100</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37004336541936333</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D122" s="6">
+        <v>12752800</v>
+      </c>
+      <c r="E122" s="6">
+        <v>17463000</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36934633962737595</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D123" s="6">
+        <v>13753000</v>
+      </c>
+      <c r="E123" s="6">
+        <v>19579900</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42368210572238785</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F124" s="2">
+        <f>AVERAGE(F116:F123)</f>
+        <v>0.42549489819652142</v>
       </c>
     </row>
   </sheetData>
